--- a/src/main/resources/API_Testdata.xlsx
+++ b/src/main/resources/API_Testdata.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>tagNumber</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>2a9a6ac5-3459-441d-b5e2-50a2499e4ce3</t>
+  </si>
+  <si>
+    <t>5861280721</t>
+  </si>
+  <si>
+    <t>32844442</t>
+  </si>
+  <si>
+    <t>022873834905</t>
+  </si>
+  <si>
+    <t>1c5c30eb-6641-4399-a555-1d2ea494d3fb</t>
   </si>
 </sst>
 </file>
@@ -931,7 +943,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -939,7 +951,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -947,7 +959,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -955,7 +967,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
